--- a/Встроенные_функции.xlsx
+++ b/Встроенные_функции.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\115\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\программы\информатика\Excel 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2716BE-6610-4B49-8A73-3EB4452E7DDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070" activeTab="2"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Абитуриенты" sheetId="1" r:id="rId1"/>
     <sheet name="Название озер" sheetId="2" r:id="rId2"/>
     <sheet name="Оценки" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Абитуриенты</t>
   </si>
@@ -155,13 +156,20 @@
   </si>
   <si>
     <t>Химия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                Предмет
+    Фамилии</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,16 +186,49 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="lightUp"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -210,33 +251,239 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal style="thin">
         <color auto="1"/>
       </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed" wrapText="1"/>
     </xf>
@@ -258,11 +505,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="171" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="171" fontId="2" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
@@ -558,251 +845,251 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10">
-        <v>4</v>
-      </c>
-      <c r="D3" s="10">
-        <v>3</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="B3" s="6">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="6">
         <f>B3+C3+D3</f>
         <v>12</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="7">
         <f>E3/3</f>
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="10">
-        <v>4</v>
-      </c>
-      <c r="C4" s="10">
-        <v>5</v>
-      </c>
-      <c r="D4" s="10">
-        <v>4</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="B4" s="6">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6">
         <f t="shared" ref="E4:E12" si="0">B4+C4+D4</f>
         <v>13</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="8">
         <f t="shared" ref="F4:F12" si="1">E4/3</f>
         <v>4.333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10">
-        <v>4</v>
-      </c>
-      <c r="C5" s="10">
-        <v>5</v>
-      </c>
-      <c r="D5" s="10">
-        <v>4</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="B5" s="6">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="8">
         <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10">
-        <v>3</v>
-      </c>
-      <c r="C6" s="10">
-        <v>5</v>
-      </c>
-      <c r="D6" s="10">
-        <v>5</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="8">
         <f t="shared" si="1"/>
         <v>4.333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6">
         <v>2</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
         <v>1.6666666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="10">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10">
-        <v>3</v>
-      </c>
-      <c r="D8" s="10">
+      <c r="B8" s="6">
+        <v>4</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3</v>
+      </c>
+      <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="10">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10">
-        <v>5</v>
-      </c>
-      <c r="D9" s="10">
-        <v>5</v>
-      </c>
-      <c r="E9" s="10">
+      <c r="B9" s="6">
+        <v>5</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="7">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="10">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10">
-        <v>3</v>
-      </c>
-      <c r="D10" s="10">
-        <v>4</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="B10" s="6">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4</v>
+      </c>
+      <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="8">
         <f t="shared" si="1"/>
         <v>3.6666666666666665</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10">
-        <v>4</v>
-      </c>
-      <c r="C11" s="10">
-        <v>4</v>
-      </c>
-      <c r="D11" s="10">
-        <v>4</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="B11" s="6">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4</v>
+      </c>
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10">
-        <v>3</v>
-      </c>
-      <c r="C12" s="10">
-        <v>4</v>
-      </c>
-      <c r="D12" s="10">
-        <v>4</v>
-      </c>
-      <c r="E12" s="10">
+      <c r="B12" s="6">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="8">
         <f t="shared" si="1"/>
         <v>3.6666666666666665</v>
       </c>
@@ -817,7 +1104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
@@ -832,150 +1119,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="6">
         <v>31.5</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="6">
         <v>1520</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="6">
         <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="6">
         <v>34</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="6">
         <v>14701</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="6">
         <v>773</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="6">
         <v>68</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="6">
         <v>80</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="6">
         <v>1134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <v>59.6</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="6">
         <v>288</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="6">
         <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>51.1</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="6">
         <v>61</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="6">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="6">
         <v>58</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="6">
         <v>281</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="6">
         <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="6">
         <f>MIN(B2:B7)</f>
         <v>31.5</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <f t="shared" ref="C8:D8" si="0">MIN(C2:C7)</f>
         <v>61</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="6">
         <f>MAX(B2:B7)</f>
         <v>68</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <f t="shared" ref="C9:D9" si="1">MAX(C2:C7)</f>
         <v>14701</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <f t="shared" si="1"/>
         <v>1134</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="8">
         <f>AVERAGE(B2:B7)</f>
         <v>50.366666666666667</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="8">
         <f t="shared" ref="C10:D10" si="2">AVERAGE(C2:C7)</f>
         <v>2821.8333333333335</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="8">
         <f t="shared" si="2"/>
         <v>461.66666666666669</v>
       </c>
@@ -986,206 +1273,269 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" customWidth="1"/>
+    <col min="7" max="8" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="15" t="s">
+      <c r="B1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="15" t="s">
+      <c r="G1" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="39" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <v>5</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
+      <c r="C2" s="20">
+        <v>4</v>
+      </c>
+      <c r="D2" s="21">
+        <v>5</v>
+      </c>
+      <c r="E2" s="21">
+        <v>5</v>
+      </c>
+      <c r="F2" s="21">
+        <v>5</v>
+      </c>
+      <c r="G2" s="21">
+        <v>5</v>
+      </c>
+      <c r="H2" s="21">
+        <v>5</v>
+      </c>
+      <c r="I2" s="22">
+        <v>5</v>
+      </c>
+      <c r="J2" s="16">
+        <f>AVERAGE(C2:I2)</f>
+        <v>4.8571428571428568</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3">
+      <c r="C3" s="23">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13">
+        <v>3</v>
+      </c>
+      <c r="F3" s="13">
+        <v>3</v>
+      </c>
+      <c r="G3" s="13">
+        <v>3</v>
+      </c>
+      <c r="H3" s="13">
+        <v>3</v>
+      </c>
+      <c r="I3" s="24">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17">
+        <f t="shared" ref="J3:J6" si="0">AVERAGE(C3:I3)</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="25">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>4</v>
+      <c r="D4" s="12">
+        <v>4</v>
+      </c>
+      <c r="E4" s="12">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12">
+        <v>4</v>
+      </c>
+      <c r="G4" s="12">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12">
+        <v>4</v>
+      </c>
+      <c r="I4" s="26">
+        <v>4</v>
+      </c>
+      <c r="J4" s="17">
+        <f t="shared" si="0"/>
+        <v>3.7142857142857144</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
+      <c r="C5" s="25">
+        <v>4</v>
+      </c>
+      <c r="D5" s="12">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11">
+        <v>5</v>
+      </c>
+      <c r="F5" s="11">
+        <v>5</v>
+      </c>
+      <c r="G5" s="11">
+        <v>5</v>
+      </c>
+      <c r="H5" s="11">
+        <v>5</v>
+      </c>
+      <c r="I5" s="27">
+        <v>5</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" si="0"/>
+        <v>4.7142857142857144</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C6" s="23">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11">
+        <v>5</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4</v>
+      </c>
+      <c r="G6" s="12">
+        <v>4</v>
+      </c>
+      <c r="H6" s="12">
+        <v>4</v>
+      </c>
+      <c r="I6" s="26">
+        <v>4</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="28">
+        <f>AVERAGE(C2:C6)</f>
+        <v>3.2</v>
+      </c>
+      <c r="D7" s="15">
+        <f t="shared" ref="D7:J7" si="1">AVERAGE(D2:D6)</f>
+        <v>4.2</v>
+      </c>
+      <c r="E7" s="15">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="G7" s="15">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="I7" s="29">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+      <c r="J7" s="19">
+        <f t="shared" si="1"/>
+        <v>4.0571428571428569</v>
+      </c>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>